--- a/data/PSA_MY2026_TestCase_Standard.xlsx
+++ b/data/PSA_MY2026_TestCase_Standard.xlsx
@@ -655,9 +655,17 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -733,9 +741,17 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -811,9 +827,17 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -889,9 +913,17 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -967,9 +999,17 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1045,9 +1085,17 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1123,9 +1171,17 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -1201,9 +1257,17 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -1279,9 +1343,17 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1357,9 +1429,17 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1441,7 +1521,11 @@
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
@@ -1498,28 +1582,36 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10/1/MY</t>
+          <t>11/14/M</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10/1/MY</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>11/14/MY</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>12/31/MY</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1535,7 +1627,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>11/14/M</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1595,28 +1687,36 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10/1/MY</t>
+          <t>11/15/M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10/1/MY</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>11/15/MY</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>12/31/MY</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1632,7 +1732,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>11/15/M</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1692,39 +1792,47 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10/1/MY</t>
+          <t>10/21/M</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10/21/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/1/MY</t>
+          <t>10/1/MY</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
+          <t>10/21/MY</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11/1/MY</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>11/21/MY</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>12/31/MY</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1737,17 +1845,21 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>10/21/M</t>
+          <t>11/21/M</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
           <t>11/21/M</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1802,28 +1914,36 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9/30/MY</t>
+          <t>11/16/M</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>9/30/MY</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>11/16/MY</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>12/31/MY</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1839,7 +1959,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11/16/M</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2108,7 +2228,11 @@
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -2192,7 +2316,11 @@
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
@@ -2249,12 +2377,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/30/MY</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12/30/MY-</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -2265,22 +2393,38 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>12/30/MY-</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>12/31/MY-</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>12/31/M</t>
         </is>
       </c>
       <c r="U21" t="inlineStr"/>
@@ -2373,7 +2517,11 @@
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -2457,7 +2605,11 @@
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -2514,17 +2666,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>9/30/MY</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>9/30/MY-</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -2535,11 +2695,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>1/1/MY-</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -2641,7 +2797,11 @@
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -2742,7 +2902,11 @@
         </is>
       </c>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -2843,7 +3007,11 @@
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -3109,11 +3277,23 @@
         </is>
       </c>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
@@ -3188,15 +3368,27 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
@@ -3271,31 +3463,31 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3374,21 +3566,33 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
         <v>1</v>
@@ -3468,25 +3672,25 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>8/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>8/1/MY</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>8/1/MY</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -3542,12 +3746,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -3562,8 +3766,16 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -3573,13 +3785,13 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>1/1/MY-</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1/1/MY-</t>
+          <t>8/1/MY</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -3678,15 +3890,27 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
         <v>1</v>
@@ -3760,7 +3984,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3770,11 +3994,23 @@
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
         <v>1</v>
@@ -3847,13 +4083,13 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -3869,7 +4105,11 @@
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="n">
         <v>1</v>
@@ -3943,15 +4183,27 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -4026,15 +4278,27 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
@@ -4113,11 +4377,23 @@
         </is>
       </c>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
@@ -4192,25 +4468,33 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
         <v>1</v>
@@ -4290,19 +4574,27 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
         <v>1</v>
@@ -4382,19 +4674,27 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
         <v>1</v>
@@ -4474,15 +4774,27 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
         <v>1</v>
@@ -4556,7 +4868,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U46" t="inlineStr"/>
@@ -4566,11 +4878,23 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
         <v>1</v>
@@ -4643,13 +4967,13 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -4665,7 +4989,11 @@
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="n">
         <v>1</v>
@@ -4739,15 +5067,27 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -4822,15 +5162,27 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
@@ -4909,11 +5261,23 @@
         </is>
       </c>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
@@ -4988,25 +5352,33 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
         <v>1</v>
@@ -5086,19 +5458,27 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
         <v>1</v>
@@ -5178,19 +5558,27 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
         <v>1</v>
@@ -5270,15 +5658,27 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
         <v>1</v>
@@ -5358,15 +5758,27 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
         <v>1</v>
@@ -5439,7 +5851,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U56" t="inlineStr"/>
@@ -5449,11 +5861,23 @@
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
         <v>1</v>
@@ -5526,21 +5950,33 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
         <v>1</v>
@@ -5613,21 +6049,33 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="n">
         <v>1</v>
@@ -5706,15 +6154,27 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="n">
         <v>1</v>
@@ -5794,15 +6254,27 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="n">
         <v>1</v>
@@ -5875,7 +6347,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U61" t="inlineStr"/>
@@ -5885,11 +6357,23 @@
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="n">
         <v>1</v>
@@ -5962,13 +6446,13 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -5986,7 +6470,7 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
@@ -6069,15 +6553,27 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
@@ -6152,15 +6648,27 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
@@ -6236,15 +6744,27 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
           <t>7/1/MY</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>7/1/MY</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -6320,25 +6840,33 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="n">
         <v>1</v>
@@ -6419,19 +6947,27 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
           <t>1/10/MY</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="n">
         <v>1</v>
@@ -6512,19 +7048,27 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="n">
         <v>1</v>
@@ -6605,15 +7149,27 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="n">
         <v>1</v>
@@ -6686,21 +7242,33 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="n">
         <v>1</v>
@@ -6773,19 +7341,19 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
@@ -6795,7 +7363,11 @@
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="n">
         <v>1</v>
@@ -6875,15 +7447,27 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="n">
         <v>1</v>
@@ -6962,15 +7546,27 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="n">
         <v>1</v>
@@ -7043,21 +7639,33 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>1/1/MY-7</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
           <t>1/1/MY-7</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>1/1/MY-7</t>
+        </is>
+      </c>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>1/1/MY-7</t>
+        </is>
+      </c>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="n">
         <v>1</v>
@@ -7131,25 +7739,33 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>1/1/1950</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>1/1/MY-70</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
+          <t>1/1/1950</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
           <t>1/1/MY-70</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>1/1/MY-70</t>
+        </is>
+      </c>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="n">
         <v>1</v>
@@ -7224,21 +7840,33 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>1/1/1950</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>1/1/1950</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr">
+        <is>
           <t>12/31/MY-71</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>1/1/1950</t>
+        </is>
+      </c>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="n">
         <v>1</v>
@@ -7313,15 +7941,27 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
           <t>1/1/MY-10</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>1/1/MY-10</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
@@ -7397,7 +8037,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U78" t="inlineStr"/>
@@ -7407,11 +8047,23 @@
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="n">
         <v>1</v>
@@ -7491,15 +8143,27 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="n">
         <v>1</v>
@@ -7573,15 +8237,27 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
@@ -7656,7 +8332,7 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U81" t="inlineStr"/>
@@ -7666,11 +8342,23 @@
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="n">
         <v>1</v>
@@ -7750,15 +8438,27 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="n">
         <v>1</v>
@@ -7832,15 +8532,27 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
           <t>1/1/MY+S</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>1/1/MY+S</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
@@ -7919,11 +8631,23 @@
         </is>
       </c>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -8005,15 +8729,27 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="n">
         <v>1</v>
@@ -8086,7 +8822,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>1/1/MY-7</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U86" t="inlineStr"/>
@@ -8102,9 +8838,17 @@
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>1/1/MY-7</t>
+        </is>
+      </c>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="n">
         <v>1</v>
@@ -8178,7 +8922,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>1/1/MY-7</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U87" t="inlineStr"/>
@@ -8190,13 +8934,21 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-7</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="n">
         <v>1</v>
@@ -8276,15 +9028,27 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="n">
         <v>1</v>
@@ -8357,7 +9121,7 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U89" t="inlineStr"/>
@@ -8367,11 +9131,23 @@
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="n">
         <v>1</v>
@@ -8444,21 +9220,33 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="n">
         <v>1</v>
@@ -8531,21 +9319,33 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="n">
         <v>1</v>
@@ -8618,15 +9418,27 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
@@ -8701,15 +9513,27 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
@@ -8790,15 +9614,27 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="n">
         <v>1</v>
@@ -8871,21 +9707,33 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="n">
         <v>1</v>
@@ -8958,15 +9806,27 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
@@ -9045,11 +9905,23 @@
         </is>
       </c>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
@@ -9131,15 +10003,27 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="n">
         <v>1</v>
@@ -9213,7 +10097,7 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U99" t="inlineStr"/>
@@ -9229,9 +10113,17 @@
         </is>
       </c>
       <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="n">
         <v>1</v>
@@ -9305,7 +10197,7 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U100" t="inlineStr"/>
@@ -9317,13 +10209,21 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="n">
         <v>1</v>
@@ -9403,15 +10303,27 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="n">
         <v>1</v>
@@ -9487,7 +10399,7 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U102" t="inlineStr"/>
@@ -9497,11 +10409,23 @@
         </is>
       </c>
       <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="n">
         <v>1</v>
@@ -9581,11 +10505,23 @@
         </is>
       </c>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
@@ -9663,15 +10599,27 @@
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
@@ -9747,9 +10695,17 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
@@ -9829,9 +10785,17 @@
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
@@ -9911,9 +10875,17 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
@@ -9993,9 +10965,17 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
@@ -10077,21 +11057,33 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC109" t="inlineStr"/>
       <c r="AD109" t="n">
         <v>1</v>
@@ -10165,13 +11157,13 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W110" t="inlineStr"/>
@@ -10268,13 +11260,13 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W111" t="inlineStr"/>
@@ -10292,7 +11284,7 @@
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr"/>
@@ -10377,15 +11369,27 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="n">
         <v>1</v>
@@ -10461,7 +11465,7 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U113" t="inlineStr"/>
@@ -10471,11 +11475,23 @@
         </is>
       </c>
       <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC113" t="inlineStr"/>
       <c r="AD113" t="n">
         <v>1</v>
@@ -10555,11 +11571,23 @@
         </is>
       </c>
       <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
@@ -10637,15 +11665,27 @@
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
@@ -10721,9 +11761,17 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
@@ -10803,9 +11851,17 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
@@ -10885,9 +11941,17 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr"/>
@@ -10967,9 +12031,17 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
@@ -11051,13 +12123,13 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W120" t="inlineStr"/>
@@ -11153,13 +12225,13 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W121" t="inlineStr"/>
@@ -11177,7 +12249,7 @@
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr"/>
@@ -11255,21 +12327,33 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="n">
         <v>1</v>
@@ -11345,21 +12429,33 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC123" t="inlineStr"/>
       <c r="AD123" t="n">
         <v>1</v>
@@ -11439,11 +12535,23 @@
         </is>
       </c>
       <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
@@ -11521,15 +12629,27 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
@@ -11607,15 +12727,27 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
@@ -11693,15 +12825,27 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
@@ -11779,15 +12923,27 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
@@ -11865,13 +13021,13 @@
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W129" t="inlineStr"/>
@@ -11966,13 +13122,13 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W130" t="inlineStr"/>
@@ -11990,7 +13146,7 @@
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr"/>
@@ -12068,13 +13224,13 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W131" t="inlineStr"/>
@@ -12084,9 +13240,17 @@
         </is>
       </c>
       <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA131" t="inlineStr"/>
-      <c r="AB131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC131" t="inlineStr"/>
       <c r="AD131" t="n">
         <v>1</v>
@@ -12161,21 +13325,33 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="n">
         <v>1</v>
@@ -12250,21 +13426,33 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="n">
         <v>1</v>
@@ -12339,21 +13527,33 @@
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC134" t="inlineStr"/>
       <c r="AD134" t="n">
         <v>1</v>
@@ -12428,31 +13628,31 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr">
         <is>
-          <t>1/10/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>1/20/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>2/1/MY-1</t>
+          <t>1/10/MY-1</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2/10/MY-1</t>
+          <t>1/20/MY-1</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>1/10/MY-1</t>
+          <t>2/1/MY-1</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr"/>
@@ -12551,15 +13751,27 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
@@ -12636,21 +13848,33 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="n">
         <v>1</v>
@@ -12725,15 +13949,27 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
@@ -12786,12 +14022,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1-</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -12809,19 +14045,27 @@
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr">
         <is>
-          <t>1/1/MY-1--</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>1/1/MY-1--</t>
+        </is>
+      </c>
       <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>1/1/MY-1--</t>
+        </is>
+      </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
@@ -12875,12 +14119,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -12898,25 +14142,33 @@
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr">
         <is>
-          <t>1/1/MY-1--</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
+          <t>1/1/MY-1--</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr">
+        <is>
           <t>1/2/MY-1</t>
         </is>
       </c>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>1/1/MY-1--</t>
+        </is>
+      </c>
       <c r="AC140" t="inlineStr"/>
       <c r="AD140" t="n">
         <v>1</v>
@@ -12999,13 +14251,13 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr"/>
@@ -13017,7 +14269,7 @@
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr"/>
@@ -13095,13 +14347,13 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr">
         <is>
-          <t>1/7/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W142" t="inlineStr"/>
@@ -13111,9 +14363,17 @@
         </is>
       </c>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>1/7/MY-1</t>
+        </is>
+      </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="n">
         <v>1</v>
@@ -13187,13 +14447,13 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W143" t="inlineStr"/>
@@ -13289,31 +14549,31 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t>12/30/MY-2</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY-2</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/30/MY-2</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr"/>
@@ -13394,25 +14654,25 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>1/2/MY</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr"/>
@@ -13499,29 +14759,33 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>12/30/MY-2</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY-2</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>12/30/MY-2</t>
+        </is>
+      </c>
       <c r="AC146" t="inlineStr"/>
       <c r="AD146" t="n">
         <v>1</v>
@@ -13601,13 +14865,13 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>1/7/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W147" t="inlineStr"/>
@@ -13619,7 +14883,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>1/8/MY</t>
+          <t>1/7/MY</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr"/>
@@ -13701,13 +14965,13 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>1/8/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W148" t="inlineStr"/>
@@ -13719,11 +14983,15 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>1/9/MY</t>
+          <t>1/8/MY</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr"/>
-      <c r="AB148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC148" t="inlineStr"/>
       <c r="AD148" t="n">
         <v>1</v>
@@ -13803,19 +15071,19 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>12/25/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/25/MY-2</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr"/>
@@ -13899,13 +15167,13 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>12/24/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W150" t="inlineStr"/>
@@ -13917,11 +15185,15 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/24/MY-2</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr"/>
-      <c r="AB150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC150" t="inlineStr"/>
       <c r="AD150" t="n">
         <v>1</v>
@@ -13995,21 +15267,33 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA151" t="inlineStr"/>
-      <c r="AB151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC151" t="inlineStr"/>
       <c r="AD151" t="n">
         <v>1</v>
@@ -14082,21 +15366,33 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA152" t="inlineStr"/>
-      <c r="AB152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="n">
         <v>1</v>
@@ -14173,11 +15469,23 @@
         </is>
       </c>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
@@ -14252,15 +15560,27 @@
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
@@ -14335,15 +15655,27 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr">
+        <is>
           <t>12/31/MY-2</t>
         </is>
       </c>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
@@ -14418,21 +15750,33 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC156" t="inlineStr"/>
       <c r="AD156" t="n">
         <v>1</v>
@@ -14505,15 +15849,27 @@
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr">
+        <is>
           <t>12/31/MY+1</t>
         </is>
       </c>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>12/31/MY+1</t>
+        </is>
+      </c>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
@@ -14588,21 +15944,33 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA158" t="inlineStr"/>
-      <c r="AB158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC158" t="inlineStr"/>
       <c r="AD158" t="n">
         <v>1</v>
@@ -14676,13 +16044,13 @@
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W159" t="inlineStr"/>
@@ -14692,9 +16060,17 @@
         </is>
       </c>
       <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA159" t="inlineStr"/>
-      <c r="AB159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC159" t="inlineStr"/>
       <c r="AD159" t="n">
         <v>1</v>
@@ -14768,25 +16144,33 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AC160" t="inlineStr"/>
       <c r="AD160" t="n">
         <v>1</v>
@@ -14866,15 +16250,27 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA161" t="inlineStr"/>
-      <c r="AB161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC161" t="inlineStr"/>
       <c r="AD161" t="n">
         <v>1</v>
@@ -14954,15 +16350,27 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA162" t="inlineStr"/>
-      <c r="AB162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="n">
         <v>1</v>
@@ -15036,7 +16444,7 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U163" t="inlineStr"/>
@@ -15046,11 +16454,23 @@
         </is>
       </c>
       <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA163" t="inlineStr"/>
-      <c r="AB163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC163" t="inlineStr"/>
       <c r="AD163" t="n">
         <v>1</v>
@@ -15124,7 +16544,7 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U164" t="inlineStr"/>
@@ -15134,11 +16554,23 @@
         </is>
       </c>
       <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA164" t="inlineStr"/>
-      <c r="AB164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="n">
         <v>1</v>
@@ -15212,15 +16644,27 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
@@ -15300,11 +16744,23 @@
         </is>
       </c>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
@@ -15386,15 +16842,27 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA167" t="inlineStr"/>
-      <c r="AB167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC167" t="inlineStr"/>
       <c r="AD167" t="n">
         <v>1</v>
@@ -15468,7 +16936,7 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U168" t="inlineStr"/>
@@ -15478,11 +16946,23 @@
         </is>
       </c>
       <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA168" t="inlineStr"/>
-      <c r="AB168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="n">
         <v>1</v>
@@ -15562,15 +17042,27 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA169" t="inlineStr"/>
-      <c r="AB169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="n">
         <v>1</v>
@@ -15660,9 +17152,17 @@
         </is>
       </c>
       <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA170" t="inlineStr"/>
-      <c r="AB170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="n">
         <v>1</v>
@@ -15749,13 +17249,21 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr"/>
-      <c r="Z171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA171" t="inlineStr"/>
-      <c r="AB171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="n">
         <v>1</v>
@@ -15836,7 +17344,7 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W172" t="inlineStr"/>
@@ -15846,9 +17354,17 @@
         </is>
       </c>
       <c r="Y172" t="inlineStr"/>
-      <c r="Z172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA172" t="inlineStr"/>
-      <c r="AB172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="n">
         <v>1</v>
@@ -15928,7 +17444,7 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W173" t="inlineStr"/>
@@ -15938,9 +17454,17 @@
         </is>
       </c>
       <c r="Y173" t="inlineStr"/>
-      <c r="Z173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA173" t="inlineStr"/>
-      <c r="AB173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="n">
         <v>1</v>
@@ -16014,29 +17538,33 @@
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr"/>
-      <c r="AB174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC174" t="inlineStr"/>
       <c r="AD174" t="n">
         <v>1</v>
@@ -16117,23 +17645,27 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>12/31/MY-2</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
-          <t>1/1/MY+1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY-2</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr"/>
-      <c r="AB175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AC175" t="inlineStr"/>
       <c r="AD175" t="n">
         <v>1</v>
@@ -16209,25 +17741,33 @@
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr">
         <is>
-          <t>1/1/MY-S</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>1/1/MY-P</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-S</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr"/>
-      <c r="Z176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>1/1/MY-P</t>
+        </is>
+      </c>
       <c r="AA176" t="inlineStr"/>
-      <c r="AB176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC176" t="inlineStr"/>
       <c r="AD176" t="n">
         <v>1</v>
@@ -16301,25 +17841,33 @@
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr">
         <is>
-          <t>1/1/MY-S</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>1/1/MY-S</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-S</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr"/>
-      <c r="Z177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>1/1/MY-S</t>
+        </is>
+      </c>
       <c r="AA177" t="inlineStr"/>
-      <c r="AB177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC177" t="inlineStr"/>
       <c r="AD177" t="n">
         <v>1</v>
@@ -16397,11 +17945,23 @@
         </is>
       </c>
       <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y178" t="inlineStr"/>
-      <c r="Z178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
@@ -16483,11 +18043,23 @@
         </is>
       </c>
       <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y179" t="inlineStr"/>
-      <c r="Z179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
@@ -16571,15 +18143,27 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y180" t="inlineStr"/>
-      <c r="Z180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA180" t="inlineStr"/>
-      <c r="AB180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC180" t="inlineStr"/>
       <c r="AD180" t="n">
         <v>1</v>
@@ -16653,21 +18237,33 @@
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA181" t="inlineStr"/>
-      <c r="AB181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC181" t="inlineStr"/>
       <c r="AD181" t="n">
         <v>1</v>
@@ -16741,21 +18337,33 @@
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA182" t="inlineStr"/>
-      <c r="AB182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC182" t="inlineStr"/>
       <c r="AD182" t="n">
         <v>1</v>
@@ -16835,15 +18443,27 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA183" t="inlineStr"/>
-      <c r="AB183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC183" t="inlineStr"/>
       <c r="AD183" t="n">
         <v>1</v>
@@ -16923,15 +18543,27 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA184" t="inlineStr"/>
-      <c r="AB184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC184" t="inlineStr"/>
       <c r="AD184" t="n">
         <v>1</v>
@@ -17004,7 +18636,7 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U185" t="inlineStr"/>
@@ -17014,11 +18646,23 @@
         </is>
       </c>
       <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y185" t="inlineStr"/>
-      <c r="Z185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA185" t="inlineStr"/>
-      <c r="AB185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC185" t="inlineStr"/>
       <c r="AD185" t="n">
         <v>1</v>
@@ -17091,15 +18735,27 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
-      <c r="Z186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
@@ -17174,15 +18830,27 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="inlineStr"/>
       <c r="AC187" t="inlineStr"/>
@@ -17261,11 +18929,23 @@
         </is>
       </c>
       <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="inlineStr"/>
       <c r="AC188" t="inlineStr"/>
@@ -17346,15 +19026,27 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA189" t="inlineStr"/>
-      <c r="AB189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC189" t="inlineStr"/>
       <c r="AD189" t="n">
         <v>1</v>
@@ -17427,7 +19119,7 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U190" t="inlineStr"/>
@@ -17437,11 +19129,23 @@
         </is>
       </c>
       <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA190" t="inlineStr"/>
-      <c r="AB190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC190" t="inlineStr"/>
       <c r="AD190" t="n">
         <v>1</v>
@@ -17520,15 +19224,27 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y191" t="inlineStr"/>
-      <c r="Z191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA191" t="inlineStr"/>
-      <c r="AB191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC191" t="inlineStr"/>
       <c r="AD191" t="n">
         <v>1</v>
@@ -17601,15 +19317,27 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="inlineStr"/>
@@ -17684,15 +19412,27 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
           <t>1/1/MY+1</t>
         </is>
       </c>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
-      <c r="Z193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>1/1/MY+1</t>
+        </is>
+      </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
@@ -17773,15 +19513,27 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y194" t="inlineStr"/>
-      <c r="Z194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA194" t="inlineStr"/>
-      <c r="AB194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC194" t="inlineStr"/>
       <c r="AD194" t="n">
         <v>1</v>
@@ -17858,11 +19610,23 @@
         </is>
       </c>
       <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -17941,11 +19705,23 @@
         </is>
       </c>
       <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -18024,11 +19800,23 @@
         </is>
       </c>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -18119,9 +19907,17 @@
         </is>
       </c>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA198" t="inlineStr"/>
-      <c r="AB198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC198" t="inlineStr"/>
       <c r="AD198" t="n">
         <v>1</v>
@@ -18195,21 +19991,33 @@
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AA199" t="inlineStr"/>
-      <c r="AB199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AC199" t="inlineStr"/>
       <c r="AD199" t="n">
         <v>1</v>
@@ -18283,15 +20091,27 @@
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
           <t>1/1/MY-1-</t>
         </is>
       </c>
-      <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr"/>
-      <c r="Z200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>1/1/MY-1-</t>
+        </is>
+      </c>
       <c r="AA200" t="inlineStr"/>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -18379,13 +20199,21 @@
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA201" t="inlineStr"/>
-      <c r="AB201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC201" t="inlineStr"/>
       <c r="AD201" t="n">
         <v>1</v>
@@ -18459,7 +20287,7 @@
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U202" t="inlineStr"/>
@@ -18475,9 +20303,17 @@
         </is>
       </c>
       <c r="Y202" t="inlineStr"/>
-      <c r="Z202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA202" t="inlineStr"/>
-      <c r="AB202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC202" t="inlineStr"/>
       <c r="AD202" t="n">
         <v>1</v>
@@ -18549,9 +20385,17 @@
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr"/>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W203" t="inlineStr"/>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr"/>
@@ -18560,7 +20404,7 @@
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
       <c r="AD203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE203" t="inlineStr"/>
       <c r="AF203" t="n">
@@ -18577,7 +20421,7 @@
       <c r="AK203" t="inlineStr"/>
       <c r="AL203" t="inlineStr">
         <is>
-          <t>PSA_Measure scenario</t>
+          <t>PSA_Standard scenario</t>
         </is>
       </c>
     </row>
@@ -18623,9 +20467,17 @@
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W204" t="inlineStr"/>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr"/>
@@ -18703,9 +20555,17 @@
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr"/>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr"/>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr"/>
@@ -18809,9 +20669,17 @@
         </is>
       </c>
       <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC206" t="inlineStr"/>
       <c r="AD206" t="n">
         <v>1</v>
@@ -18914,9 +20782,17 @@
         </is>
       </c>
       <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC207" t="inlineStr"/>
       <c r="AD207" t="n">
         <v>1</v>
@@ -19017,9 +20893,17 @@
         </is>
       </c>
       <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC208" t="inlineStr"/>
       <c r="AD208" t="n">
         <v>1</v>
@@ -19120,9 +21004,17 @@
         </is>
       </c>
       <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>12/31/MY-2</t>
+        </is>
+      </c>
       <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC209" t="inlineStr"/>
       <c r="AD209" t="n">
         <v>1</v>
@@ -19231,9 +21123,17 @@
         </is>
       </c>
       <c r="Y210" t="inlineStr"/>
-      <c r="Z210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AA210" t="inlineStr"/>
-      <c r="AB210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>4/1/M</t>
+        </is>
+      </c>
       <c r="AC210" t="inlineStr"/>
       <c r="AD210" t="n">
         <v>1</v>
@@ -19342,9 +21242,17 @@
         </is>
       </c>
       <c r="Y211" t="inlineStr"/>
-      <c r="Z211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>4/1/M</t>
+        </is>
+      </c>
       <c r="AC211" t="inlineStr"/>
       <c r="AD211" t="n">
         <v>1</v>
@@ -19419,9 +21327,17 @@
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr"/>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W212" t="inlineStr"/>
       <c r="X212" t="inlineStr"/>
       <c r="Y212" t="inlineStr"/>
@@ -19430,7 +21346,7 @@
       <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr"/>
       <c r="AD212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE212" t="inlineStr"/>
       <c r="AF212" t="n">
@@ -19447,7 +21363,7 @@
       <c r="AK212" t="inlineStr"/>
       <c r="AL212" t="inlineStr">
         <is>
-          <t>PSA_Measure scenario</t>
+          <t>PSA_Standard scenario</t>
         </is>
       </c>
     </row>
@@ -19495,15 +21411,27 @@
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr">
+        <is>
           <t>12/31/MY-1</t>
         </is>
       </c>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
-      <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr"/>
-      <c r="Z213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>12/31/MY-1</t>
+        </is>
+      </c>
       <c r="AA213" t="inlineStr"/>
       <c r="AB213" t="inlineStr"/>
       <c r="AC213" t="inlineStr"/>
@@ -19578,15 +21506,27 @@
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr">
+        <is>
           <t>1/1/MY-1</t>
         </is>
       </c>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
-      <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
       <c r="AA214" t="inlineStr"/>
       <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr"/>
@@ -19661,13 +21601,21 @@
       <c r="S215" t="inlineStr"/>
       <c r="T215" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr">
+        <is>
           <t>1/1/M</t>
         </is>
       </c>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
       <c r="Y215" t="inlineStr"/>
       <c r="Z215" t="inlineStr"/>
       <c r="AA215" t="inlineStr"/>
@@ -19743,13 +21691,21 @@
       <c r="S216" t="inlineStr"/>
       <c r="T216" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
           <t>1/1/M</t>
         </is>
       </c>
-      <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr"/>
       <c r="Y216" t="inlineStr"/>
       <c r="Z216" t="inlineStr"/>
       <c r="AA216" t="inlineStr"/>
@@ -19825,15 +21781,27 @@
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr">
+        <is>
           <t>1/1/M</t>
         </is>
       </c>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
       <c r="Y217" t="inlineStr"/>
-      <c r="Z217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA217" t="inlineStr"/>
       <c r="AB217" t="inlineStr"/>
       <c r="AC217" t="inlineStr"/>
@@ -19909,13 +21877,21 @@
       <c r="S218" t="inlineStr"/>
       <c r="T218" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
           <t>1/1/M</t>
         </is>
       </c>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
       <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="inlineStr"/>
@@ -20009,9 +21985,17 @@
         </is>
       </c>
       <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr"/>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y219" t="inlineStr"/>
-      <c r="Z219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>5/1/M</t>
+        </is>
+      </c>
       <c r="AA219" t="inlineStr"/>
       <c r="AB219" t="inlineStr"/>
       <c r="AC219" t="inlineStr"/>
@@ -20068,7 +22052,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1/2/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -20086,19 +22070,27 @@
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/2/MY</t>
         </is>
       </c>
       <c r="W220" t="inlineStr"/>
-      <c r="X220" t="inlineStr"/>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y220" t="inlineStr"/>
-      <c r="Z220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="inlineStr"/>
       <c r="AC220" t="inlineStr"/>
@@ -20156,7 +22148,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2/14/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -20174,19 +22166,27 @@
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>2/14/MY</t>
         </is>
       </c>
       <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y221" t="inlineStr"/>
-      <c r="Z221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA221" t="inlineStr"/>
       <c r="AB221" t="inlineStr"/>
       <c r="AC221" t="inlineStr"/>
@@ -20244,7 +22244,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2/14/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -20262,19 +22262,27 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>2/14/MY</t>
         </is>
       </c>
       <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y222" t="inlineStr"/>
-      <c r="Z222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA222" t="inlineStr"/>
       <c r="AB222" t="inlineStr"/>
       <c r="AC222" t="inlineStr"/>
@@ -20332,7 +22340,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2/14/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -20350,19 +22358,27 @@
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>2/14/MY</t>
         </is>
       </c>
       <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y223" t="inlineStr"/>
-      <c r="Z223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA223" t="inlineStr"/>
       <c r="AB223" t="inlineStr"/>
       <c r="AC223" t="inlineStr"/>
@@ -20420,7 +22436,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>11/16/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -20438,19 +22454,27 @@
       <c r="S224" t="inlineStr"/>
       <c r="T224" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr">
         <is>
+          <t>11/16/MY</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr">
+        <is>
           <t>11/15/MY</t>
         </is>
       </c>
-      <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr"/>
-      <c r="Z224" t="inlineStr"/>
       <c r="AA224" t="inlineStr"/>
       <c r="AB224" t="inlineStr"/>
       <c r="AC224" t="inlineStr"/>
@@ -20525,13 +22549,21 @@
       <c r="S225" t="inlineStr"/>
       <c r="T225" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr">
+        <is>
           <t>1/1/M</t>
         </is>
       </c>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
-      <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
       <c r="Y225" t="inlineStr"/>
       <c r="Z225" t="inlineStr"/>
       <c r="AA225" t="inlineStr"/>
@@ -20595,16 +22627,8 @@
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>1/1/MY</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>1/3/MY</t>
-        </is>
-      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
@@ -20627,7 +22651,11 @@
         </is>
       </c>
       <c r="W226" t="inlineStr"/>
-      <c r="X226" t="inlineStr"/>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y226" t="inlineStr"/>
       <c r="Z226" t="inlineStr"/>
       <c r="AA226" t="inlineStr"/>
@@ -20722,9 +22750,17 @@
         </is>
       </c>
       <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr"/>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y227" t="inlineStr"/>
-      <c r="Z227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>1/1/MY-</t>
+        </is>
+      </c>
       <c r="AA227" t="inlineStr"/>
       <c r="AB227" t="inlineStr"/>
       <c r="AC227" t="inlineStr"/>
@@ -20782,13 +22818,13 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -20819,8 +22855,16 @@
         </is>
       </c>
       <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>1/1/MY-1</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr">
         <is>
@@ -20830,21 +22874,13 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr">
         <is>
-          <t>1/1/MY-</t>
+          <t>1/1/M</t>
         </is>
       </c>
       <c r="W228" t="inlineStr"/>
-      <c r="X228" t="inlineStr">
-        <is>
-          <t>1/1/MY-</t>
-        </is>
-      </c>
+      <c r="X228" t="inlineStr"/>
       <c r="Y228" t="inlineStr"/>
-      <c r="Z228" t="inlineStr">
-        <is>
-          <t>1/1/MY-</t>
-        </is>
-      </c>
+      <c r="Z228" t="inlineStr"/>
       <c r="AA228" t="inlineStr"/>
       <c r="AB228" t="inlineStr"/>
       <c r="AC228" t="inlineStr"/>
@@ -20899,18 +22935,18 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/M</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -20919,8 +22955,16 @@
         </is>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -20936,7 +22980,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="W229" t="inlineStr"/>
@@ -20995,18 +23039,18 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/M</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -21037,8 +23081,16 @@
         </is>
       </c>
       <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr">
         <is>
@@ -21048,21 +23100,13 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr">
         <is>
-          <t>1/1/M</t>
+          <t>1/1/MY-</t>
         </is>
       </c>
       <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr">
-        <is>
-          <t>1/1/M</t>
-        </is>
-      </c>
+      <c r="X230" t="inlineStr"/>
       <c r="Y230" t="inlineStr"/>
-      <c r="Z230" t="inlineStr">
-        <is>
-          <t>1/1/M</t>
-        </is>
-      </c>
+      <c r="Z230" t="inlineStr"/>
       <c r="AA230" t="inlineStr"/>
       <c r="AB230" t="inlineStr"/>
       <c r="AC230" t="inlineStr"/>
@@ -21172,9 +23216,17 @@
         </is>
       </c>
       <c r="Y231" t="inlineStr"/>
-      <c r="Z231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC231" t="inlineStr"/>
       <c r="AD231" t="n">
         <v>1</v>
@@ -21267,9 +23319,17 @@
         </is>
       </c>
       <c r="W232" t="inlineStr"/>
-      <c r="X232" t="inlineStr"/>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y232" t="inlineStr"/>
-      <c r="Z232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>11/17/M</t>
+        </is>
+      </c>
       <c r="AA232" t="inlineStr"/>
       <c r="AB232" t="inlineStr"/>
       <c r="AC232" t="inlineStr"/>
@@ -21363,9 +23423,17 @@
         </is>
       </c>
       <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y233" t="inlineStr"/>
-      <c r="Z233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>11/17/M</t>
+        </is>
+      </c>
       <c r="AA233" t="inlineStr"/>
       <c r="AB233" t="inlineStr"/>
       <c r="AC233" t="inlineStr"/>
@@ -21487,7 +23555,11 @@
         </is>
       </c>
       <c r="AA234" t="inlineStr"/>
-      <c r="AB234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC234" t="inlineStr"/>
       <c r="AD234" t="n">
         <v>1</v>
@@ -21609,7 +23681,11 @@
         </is>
       </c>
       <c r="AA235" t="inlineStr"/>
-      <c r="AB235" t="inlineStr"/>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC235" t="inlineStr"/>
       <c r="AD235" t="n">
         <v>1</v>
@@ -21731,7 +23807,11 @@
         </is>
       </c>
       <c r="AA236" t="inlineStr"/>
-      <c r="AB236" t="inlineStr"/>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AC236" t="inlineStr"/>
       <c r="AD236" t="n">
         <v>1</v>
@@ -21825,9 +23905,17 @@
         </is>
       </c>
       <c r="W237" t="inlineStr"/>
-      <c r="X237" t="inlineStr"/>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="Y237" t="inlineStr"/>
-      <c r="Z237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>11/17/M</t>
+        </is>
+      </c>
       <c r="AA237" t="inlineStr"/>
       <c r="AB237" t="inlineStr"/>
       <c r="AC237" t="inlineStr"/>
@@ -21935,9 +24023,17 @@
         </is>
       </c>
       <c r="Y238" t="inlineStr"/>
-      <c r="Z238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>1/1/M</t>
+        </is>
+      </c>
       <c r="AA238" t="inlineStr"/>
-      <c r="AB238" t="inlineStr"/>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>7/1/M</t>
+        </is>
+      </c>
       <c r="AC238" t="inlineStr"/>
       <c r="AD238" t="n">
         <v>1</v>
@@ -22206,28 +24302,40 @@
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr">
         <is>
-          <t>9/9/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr">
+        <is>
           <t>9/9/MY</t>
         </is>
       </c>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
       <c r="Y241" t="inlineStr"/>
-      <c r="Z241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>9/9/MY</t>
+        </is>
+      </c>
       <c r="AA241" t="inlineStr"/>
-      <c r="AB241" t="inlineStr"/>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>9/9/MY</t>
+        </is>
+      </c>
       <c r="AC241" t="inlineStr"/>
       <c r="AD241" t="n">
         <v>1</v>
       </c>
       <c r="AE241" t="inlineStr"/>
       <c r="AF241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG241" t="inlineStr"/>
       <c r="AH241" t="n">
@@ -22292,9 +24400,17 @@
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr"/>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W242" t="inlineStr"/>
       <c r="X242" t="inlineStr"/>
       <c r="Y242" t="inlineStr"/>
@@ -22307,7 +24423,7 @@
       </c>
       <c r="AE242" t="inlineStr"/>
       <c r="AF242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG242" t="inlineStr"/>
       <c r="AH242" t="n">
@@ -22598,7 +24714,7 @@
       <c r="AA245" t="inlineStr"/>
       <c r="AB245" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AC245" t="inlineStr"/>
@@ -22698,7 +24814,7 @@
       <c r="AA246" t="inlineStr"/>
       <c r="AB246" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AC246" t="inlineStr"/>
@@ -22901,7 +25017,11 @@
         </is>
       </c>
       <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="Y248" t="inlineStr"/>
       <c r="Z248" t="inlineStr"/>
       <c r="AA248" t="inlineStr"/>
@@ -23445,9 +25565,17 @@
         </is>
       </c>
       <c r="Y253" t="inlineStr"/>
-      <c r="Z253" t="inlineStr"/>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>1/2/MY</t>
+        </is>
+      </c>
       <c r="AA253" t="inlineStr"/>
-      <c r="AB253" t="inlineStr"/>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>1/3/MY-1</t>
+        </is>
+      </c>
       <c r="AC253" t="inlineStr"/>
       <c r="AD253" t="n">
         <v>1</v>
@@ -23530,25 +25658,25 @@
       <c r="S254" t="inlineStr"/>
       <c r="T254" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W254" t="inlineStr"/>
       <c r="X254" t="inlineStr">
         <is>
-          <t>1/2/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="Y254" t="inlineStr"/>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>1/3/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA254" t="inlineStr"/>
@@ -23640,13 +25768,13 @@
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr">
         <is>
-          <t>12/30/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W255" t="inlineStr"/>
       <c r="X255" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y255" t="inlineStr"/>
@@ -23658,7 +25786,7 @@
       <c r="AA255" t="inlineStr"/>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>12/30/MY</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="AC255" t="inlineStr"/>
@@ -23713,7 +25841,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY-1-</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -23742,7 +25870,7 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="W256" t="inlineStr"/>
@@ -23754,13 +25882,13 @@
       <c r="Y256" t="inlineStr"/>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA256" t="inlineStr"/>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>12/31/MY-1--</t>
         </is>
       </c>
       <c r="AC256" t="inlineStr"/>
@@ -23838,7 +25966,7 @@
       <c r="S257" t="inlineStr"/>
       <c r="T257" t="inlineStr">
         <is>
-          <t>1/2/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U257" t="inlineStr"/>
@@ -23862,7 +25990,7 @@
       <c r="AA257" t="inlineStr"/>
       <c r="AB257" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/2/MY</t>
         </is>
       </c>
       <c r="AC257" t="inlineStr"/>
@@ -23942,13 +26070,13 @@
       <c r="S258" t="inlineStr"/>
       <c r="T258" t="inlineStr">
         <is>
-          <t>6/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W258" t="inlineStr"/>
@@ -23960,13 +26088,13 @@
       <c r="Y258" t="inlineStr"/>
       <c r="Z258" t="inlineStr">
         <is>
-          <t>3/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA258" t="inlineStr"/>
       <c r="AB258" t="inlineStr">
         <is>
-          <t>4/1/MY</t>
+          <t>6/1/MY</t>
         </is>
       </c>
       <c r="AC258" t="inlineStr"/>
@@ -24048,13 +26176,13 @@
       <c r="S259" t="inlineStr"/>
       <c r="T259" t="inlineStr">
         <is>
-          <t>6/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U259" t="inlineStr"/>
       <c r="V259" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W259" t="inlineStr"/>
@@ -24066,13 +26194,13 @@
       <c r="Y259" t="inlineStr"/>
       <c r="Z259" t="inlineStr">
         <is>
-          <t>3/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA259" t="inlineStr"/>
       <c r="AB259" t="inlineStr">
         <is>
-          <t>4/1/MY</t>
+          <t>6/1/MY</t>
         </is>
       </c>
       <c r="AC259" t="inlineStr"/>
@@ -24157,7 +26285,7 @@
       <c r="S260" t="inlineStr"/>
       <c r="T260" t="inlineStr">
         <is>
-          <t>1/2/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U260" t="inlineStr"/>
@@ -24169,7 +26297,7 @@
       <c r="W260" t="inlineStr"/>
       <c r="X260" t="inlineStr">
         <is>
-          <t>1/3/MY</t>
+          <t>1/2/MY</t>
         </is>
       </c>
       <c r="Y260" t="inlineStr"/>
@@ -24181,7 +26309,7 @@
       <c r="AA260" t="inlineStr"/>
       <c r="AB260" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/3/MY</t>
         </is>
       </c>
       <c r="AC260" t="inlineStr"/>
@@ -24264,31 +26392,31 @@
       <c r="S261" t="inlineStr"/>
       <c r="T261" t="inlineStr">
         <is>
-          <t>1/1/MY-10</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U261" t="inlineStr"/>
       <c r="V261" t="inlineStr">
         <is>
-          <t>1/1/MY-1</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W261" t="inlineStr"/>
       <c r="X261" t="inlineStr">
         <is>
-          <t>12/31/MY-1</t>
+          <t>1/1/MY-10</t>
         </is>
       </c>
       <c r="Y261" t="inlineStr"/>
       <c r="Z261" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY-1</t>
         </is>
       </c>
       <c r="AA261" t="inlineStr"/>
       <c r="AB261" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>12/31/MY-1</t>
         </is>
       </c>
       <c r="AC261" t="inlineStr"/>
@@ -24297,7 +26425,7 @@
       </c>
       <c r="AE261" t="inlineStr"/>
       <c r="AF261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG261" t="inlineStr"/>
       <c r="AH261" t="n">
@@ -24393,9 +26521,17 @@
         </is>
       </c>
       <c r="W262" t="inlineStr"/>
-      <c r="X262" t="inlineStr"/>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>9/1/MY</t>
+        </is>
+      </c>
       <c r="Y262" t="inlineStr"/>
-      <c r="Z262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>1/1/MY---</t>
+        </is>
+      </c>
       <c r="AA262" t="inlineStr"/>
       <c r="AB262" t="inlineStr"/>
       <c r="AC262" t="inlineStr"/>
@@ -24455,7 +26591,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY--</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -24478,25 +26614,25 @@
       <c r="S263" t="inlineStr"/>
       <c r="T263" t="inlineStr">
         <is>
-          <t>9/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>9/1/MY</t>
         </is>
       </c>
       <c r="W263" t="inlineStr"/>
       <c r="X263" t="inlineStr">
         <is>
-          <t>1/1/MY---</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y263" t="inlineStr"/>
       <c r="Z263" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY---</t>
         </is>
       </c>
       <c r="AA263" t="inlineStr"/>
@@ -24557,7 +26693,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>1/1/MY--</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -24586,13 +26722,13 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr">
         <is>
-          <t>1/1/MY---</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="W264" t="inlineStr"/>
       <c r="X264" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY---</t>
         </is>
       </c>
       <c r="Y264" t="inlineStr"/>
@@ -24602,7 +26738,11 @@
         </is>
       </c>
       <c r="AA264" t="inlineStr"/>
-      <c r="AB264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC264" t="inlineStr"/>
       <c r="AD264" t="n">
         <v>1</v>
@@ -24689,13 +26829,21 @@
       <c r="W265" t="inlineStr"/>
       <c r="X265" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y265" t="inlineStr"/>
-      <c r="Z265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA265" t="inlineStr"/>
-      <c r="AB265" t="inlineStr"/>
+      <c r="AB265" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC265" t="inlineStr"/>
       <c r="AD265" t="n">
         <v>1</v>
@@ -24965,7 +27113,7 @@
       <c r="S268" t="inlineStr"/>
       <c r="T268" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U268" t="inlineStr"/>
@@ -24981,9 +27129,17 @@
         </is>
       </c>
       <c r="Y268" t="inlineStr"/>
-      <c r="Z268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA268" t="inlineStr"/>
-      <c r="AB268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC268" t="inlineStr"/>
       <c r="AD268" t="n">
         <v>1</v>
@@ -25063,25 +27219,25 @@
       <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W269" t="inlineStr"/>
       <c r="X269" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y269" t="inlineStr"/>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="AA269" t="inlineStr"/>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="AC269" t="inlineStr"/>
@@ -25166,23 +27322,27 @@
       <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W270" t="inlineStr"/>
       <c r="X270" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y270" t="inlineStr"/>
       <c r="Z270" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="AA270" t="inlineStr"/>
-      <c r="AB270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC270" t="inlineStr"/>
       <c r="AD270" t="n">
         <v>1</v>
@@ -25264,7 +27424,7 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr">
         <is>
-          <t>1/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W271" t="inlineStr"/>
@@ -25280,7 +27440,11 @@
         </is>
       </c>
       <c r="AA271" t="inlineStr"/>
-      <c r="AB271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="AC271" t="inlineStr"/>
       <c r="AD271" t="n">
         <v>1</v>
@@ -25368,13 +27532,21 @@
       <c r="W272" t="inlineStr"/>
       <c r="X272" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y272" t="inlineStr"/>
-      <c r="Z272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA272" t="inlineStr"/>
-      <c r="AB272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC272" t="inlineStr"/>
       <c r="AD272" t="n">
         <v>1</v>
@@ -25455,13 +27627,13 @@
       <c r="U273" t="inlineStr"/>
       <c r="V273" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W273" t="inlineStr"/>
       <c r="X273" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y273" t="inlineStr"/>
@@ -25473,7 +27645,7 @@
       <c r="AA273" t="inlineStr"/>
       <c r="AB273" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="AC273" t="inlineStr"/>
@@ -25563,7 +27735,7 @@
       <c r="W274" t="inlineStr"/>
       <c r="X274" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y274" t="inlineStr"/>
@@ -25573,7 +27745,11 @@
         </is>
       </c>
       <c r="AA274" t="inlineStr"/>
-      <c r="AB274" t="inlineStr"/>
+      <c r="AB274" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC274" t="inlineStr"/>
       <c r="AD274" t="n">
         <v>1</v>
@@ -25647,7 +27823,7 @@
       <c r="S275" t="inlineStr"/>
       <c r="T275" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U275" t="inlineStr"/>
@@ -25749,7 +27925,7 @@
       <c r="S276" t="inlineStr"/>
       <c r="T276" t="inlineStr">
         <is>
-          <t>12/30/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U276" t="inlineStr"/>
@@ -25761,13 +27937,21 @@
       <c r="W276" t="inlineStr"/>
       <c r="X276" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>12/30/MY</t>
         </is>
       </c>
       <c r="Y276" t="inlineStr"/>
-      <c r="Z276" t="inlineStr"/>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AA276" t="inlineStr"/>
-      <c r="AB276" t="inlineStr"/>
+      <c r="AB276" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC276" t="inlineStr"/>
       <c r="AD276" t="n">
         <v>1</v>
@@ -25840,7 +28024,7 @@
       <c r="S277" t="inlineStr"/>
       <c r="T277" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U277" t="inlineStr"/>
@@ -25873,7 +28057,7 @@
       </c>
       <c r="AE277" t="inlineStr"/>
       <c r="AF277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG277" t="inlineStr"/>
       <c r="AH277" t="n">
@@ -25948,19 +28132,19 @@
       <c r="U278" t="inlineStr"/>
       <c r="V278" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W278" t="inlineStr"/>
       <c r="X278" t="inlineStr">
         <is>
-          <t>7/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y278" t="inlineStr"/>
       <c r="Z278" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>7/1/MY</t>
         </is>
       </c>
       <c r="AA278" t="inlineStr"/>
@@ -26055,7 +28239,7 @@
       <c r="W279" t="inlineStr"/>
       <c r="X279" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="Y279" t="inlineStr"/>
@@ -26143,7 +28327,7 @@
       <c r="S280" t="inlineStr"/>
       <c r="T280" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U280" t="inlineStr"/>
@@ -26245,7 +28429,7 @@
       <c r="S281" t="inlineStr"/>
       <c r="T281" t="inlineStr">
         <is>
-          <t>12/30/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U281" t="inlineStr"/>
@@ -26257,7 +28441,7 @@
       <c r="W281" t="inlineStr"/>
       <c r="X281" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>12/30/MY</t>
         </is>
       </c>
       <c r="Y281" t="inlineStr"/>
@@ -26267,7 +28451,11 @@
         </is>
       </c>
       <c r="AA281" t="inlineStr"/>
-      <c r="AB281" t="inlineStr"/>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="AC281" t="inlineStr"/>
       <c r="AD281" t="n">
         <v>1</v>
@@ -26340,7 +28528,7 @@
       <c r="S282" t="inlineStr"/>
       <c r="T282" t="inlineStr">
         <is>
-          <t>12/31/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U282" t="inlineStr"/>
@@ -26440,9 +28628,17 @@
       <c r="Q283" t="inlineStr"/>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="inlineStr"/>
-      <c r="T283" t="inlineStr"/>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W283" t="inlineStr"/>
       <c r="X283" t="inlineStr"/>
       <c r="Y283" t="inlineStr"/>
@@ -26519,9 +28715,17 @@
       <c r="Q284" t="inlineStr"/>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="inlineStr"/>
-      <c r="T284" t="inlineStr"/>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U284" t="inlineStr"/>
-      <c r="V284" t="inlineStr"/>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W284" t="inlineStr"/>
       <c r="X284" t="inlineStr"/>
       <c r="Y284" t="inlineStr"/>
@@ -26598,9 +28802,17 @@
       <c r="Q285" t="inlineStr"/>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="inlineStr"/>
-      <c r="T285" t="inlineStr"/>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U285" t="inlineStr"/>
-      <c r="V285" t="inlineStr"/>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W285" t="inlineStr"/>
       <c r="X285" t="inlineStr"/>
       <c r="Y285" t="inlineStr"/>
@@ -26677,9 +28889,17 @@
       <c r="Q286" t="inlineStr"/>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="inlineStr"/>
-      <c r="T286" t="inlineStr"/>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U286" t="inlineStr"/>
-      <c r="V286" t="inlineStr"/>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W286" t="inlineStr"/>
       <c r="X286" t="inlineStr"/>
       <c r="Y286" t="inlineStr"/>
@@ -26756,9 +28976,17 @@
       <c r="Q287" t="inlineStr"/>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="inlineStr"/>
-      <c r="T287" t="inlineStr"/>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U287" t="inlineStr"/>
-      <c r="V287" t="inlineStr"/>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W287" t="inlineStr"/>
       <c r="X287" t="inlineStr"/>
       <c r="Y287" t="inlineStr"/>
@@ -26835,9 +29063,17 @@
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="inlineStr"/>
-      <c r="T288" t="inlineStr"/>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U288" t="inlineStr"/>
-      <c r="V288" t="inlineStr"/>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W288" t="inlineStr"/>
       <c r="X288" t="inlineStr"/>
       <c r="Y288" t="inlineStr"/>
@@ -26914,9 +29150,17 @@
       <c r="Q289" t="inlineStr"/>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="inlineStr"/>
-      <c r="T289" t="inlineStr"/>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U289" t="inlineStr"/>
-      <c r="V289" t="inlineStr"/>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W289" t="inlineStr"/>
       <c r="X289" t="inlineStr"/>
       <c r="Y289" t="inlineStr"/>
@@ -26993,9 +29237,17 @@
       <c r="Q290" t="inlineStr"/>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr"/>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W290" t="inlineStr"/>
       <c r="X290" t="inlineStr"/>
       <c r="Y290" t="inlineStr"/>
@@ -27072,9 +29324,17 @@
       <c r="Q291" t="inlineStr"/>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="inlineStr"/>
-      <c r="T291" t="inlineStr"/>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U291" t="inlineStr"/>
-      <c r="V291" t="inlineStr"/>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W291" t="inlineStr"/>
       <c r="X291" t="inlineStr"/>
       <c r="Y291" t="inlineStr"/>
@@ -27151,9 +29411,17 @@
       <c r="Q292" t="inlineStr"/>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="inlineStr"/>
-      <c r="T292" t="inlineStr"/>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U292" t="inlineStr"/>
-      <c r="V292" t="inlineStr"/>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W292" t="inlineStr"/>
       <c r="X292" t="inlineStr"/>
       <c r="Y292" t="inlineStr"/>
@@ -27229,9 +29497,17 @@
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="inlineStr"/>
-      <c r="T293" t="inlineStr"/>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U293" t="inlineStr"/>
-      <c r="V293" t="inlineStr"/>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W293" t="inlineStr"/>
       <c r="X293" t="inlineStr"/>
       <c r="Y293" t="inlineStr"/>
@@ -27307,9 +29583,17 @@
       <c r="Q294" t="inlineStr"/>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="inlineStr"/>
-      <c r="T294" t="inlineStr"/>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U294" t="inlineStr"/>
-      <c r="V294" t="inlineStr"/>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W294" t="inlineStr"/>
       <c r="X294" t="inlineStr"/>
       <c r="Y294" t="inlineStr"/>
@@ -27386,9 +29670,17 @@
       <c r="Q295" t="inlineStr"/>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="inlineStr"/>
-      <c r="T295" t="inlineStr"/>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U295" t="inlineStr"/>
-      <c r="V295" t="inlineStr"/>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W295" t="inlineStr"/>
       <c r="X295" t="inlineStr"/>
       <c r="Y295" t="inlineStr"/>
@@ -27464,9 +29756,17 @@
       <c r="Q296" t="inlineStr"/>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U296" t="inlineStr"/>
-      <c r="V296" t="inlineStr"/>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W296" t="inlineStr"/>
       <c r="X296" t="inlineStr"/>
       <c r="Y296" t="inlineStr"/>
@@ -27542,9 +29842,17 @@
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="inlineStr"/>
-      <c r="T297" t="inlineStr"/>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U297" t="inlineStr"/>
-      <c r="V297" t="inlineStr"/>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W297" t="inlineStr"/>
       <c r="X297" t="inlineStr"/>
       <c r="Y297" t="inlineStr"/>
@@ -27620,9 +29928,17 @@
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="inlineStr"/>
-      <c r="T298" t="inlineStr"/>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U298" t="inlineStr"/>
-      <c r="V298" t="inlineStr"/>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W298" t="inlineStr"/>
       <c r="X298" t="inlineStr"/>
       <c r="Y298" t="inlineStr"/>
@@ -27698,9 +30014,17 @@
       <c r="Q299" t="inlineStr"/>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="inlineStr"/>
-      <c r="T299" t="inlineStr"/>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U299" t="inlineStr"/>
-      <c r="V299" t="inlineStr"/>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W299" t="inlineStr"/>
       <c r="X299" t="inlineStr"/>
       <c r="Y299" t="inlineStr"/>
@@ -27777,9 +30101,17 @@
       <c r="Q300" t="inlineStr"/>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="inlineStr"/>
-      <c r="T300" t="inlineStr"/>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U300" t="inlineStr"/>
-      <c r="V300" t="inlineStr"/>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W300" t="inlineStr"/>
       <c r="X300" t="inlineStr"/>
       <c r="Y300" t="inlineStr"/>
@@ -27855,9 +30187,17 @@
       <c r="Q301" t="inlineStr"/>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="inlineStr"/>
-      <c r="T301" t="inlineStr"/>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U301" t="inlineStr"/>
-      <c r="V301" t="inlineStr"/>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W301" t="inlineStr"/>
       <c r="X301" t="inlineStr"/>
       <c r="Y301" t="inlineStr"/>
@@ -27933,9 +30273,17 @@
       <c r="Q302" t="inlineStr"/>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="inlineStr"/>
-      <c r="T302" t="inlineStr"/>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U302" t="inlineStr"/>
-      <c r="V302" t="inlineStr"/>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W302" t="inlineStr"/>
       <c r="X302" t="inlineStr"/>
       <c r="Y302" t="inlineStr"/>
@@ -28011,9 +30359,17 @@
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="inlineStr"/>
-      <c r="T303" t="inlineStr"/>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U303" t="inlineStr"/>
-      <c r="V303" t="inlineStr"/>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="inlineStr"/>
       <c r="Y303" t="inlineStr"/>
@@ -28089,9 +30445,17 @@
       <c r="Q304" t="inlineStr"/>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="inlineStr"/>
-      <c r="T304" t="inlineStr"/>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U304" t="inlineStr"/>
-      <c r="V304" t="inlineStr"/>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W304" t="inlineStr"/>
       <c r="X304" t="inlineStr"/>
       <c r="Y304" t="inlineStr"/>
@@ -28167,9 +30531,17 @@
       <c r="Q305" t="inlineStr"/>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="inlineStr"/>
-      <c r="T305" t="inlineStr"/>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U305" t="inlineStr"/>
-      <c r="V305" t="inlineStr"/>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W305" t="inlineStr"/>
       <c r="X305" t="inlineStr"/>
       <c r="Y305" t="inlineStr"/>
@@ -28245,9 +30617,17 @@
       <c r="Q306" t="inlineStr"/>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="inlineStr"/>
-      <c r="T306" t="inlineStr"/>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U306" t="inlineStr"/>
-      <c r="V306" t="inlineStr"/>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W306" t="inlineStr"/>
       <c r="X306" t="inlineStr"/>
       <c r="Y306" t="inlineStr"/>
@@ -28323,9 +30703,17 @@
       <c r="Q307" t="inlineStr"/>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="inlineStr"/>
-      <c r="T307" t="inlineStr"/>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U307" t="inlineStr"/>
-      <c r="V307" t="inlineStr"/>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W307" t="inlineStr"/>
       <c r="X307" t="inlineStr"/>
       <c r="Y307" t="inlineStr"/>
@@ -28401,9 +30789,17 @@
       <c r="Q308" t="inlineStr"/>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="inlineStr"/>
-      <c r="T308" t="inlineStr"/>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U308" t="inlineStr"/>
-      <c r="V308" t="inlineStr"/>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W308" t="inlineStr"/>
       <c r="X308" t="inlineStr"/>
       <c r="Y308" t="inlineStr"/>
@@ -28479,9 +30875,17 @@
       <c r="Q309" t="inlineStr"/>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="inlineStr"/>
-      <c r="T309" t="inlineStr"/>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U309" t="inlineStr"/>
-      <c r="V309" t="inlineStr"/>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W309" t="inlineStr"/>
       <c r="X309" t="inlineStr"/>
       <c r="Y309" t="inlineStr"/>
@@ -28557,9 +30961,17 @@
       <c r="Q310" t="inlineStr"/>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="inlineStr"/>
-      <c r="T310" t="inlineStr"/>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U310" t="inlineStr"/>
-      <c r="V310" t="inlineStr"/>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W310" t="inlineStr"/>
       <c r="X310" t="inlineStr"/>
       <c r="Y310" t="inlineStr"/>
@@ -28635,9 +31047,17 @@
       <c r="Q311" t="inlineStr"/>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="inlineStr"/>
-      <c r="T311" t="inlineStr"/>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U311" t="inlineStr"/>
-      <c r="V311" t="inlineStr"/>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W311" t="inlineStr"/>
       <c r="X311" t="inlineStr"/>
       <c r="Y311" t="inlineStr"/>
@@ -28713,9 +31133,17 @@
       <c r="Q312" t="inlineStr"/>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="inlineStr"/>
-      <c r="T312" t="inlineStr"/>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U312" t="inlineStr"/>
-      <c r="V312" t="inlineStr"/>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W312" t="inlineStr"/>
       <c r="X312" t="inlineStr"/>
       <c r="Y312" t="inlineStr"/>
@@ -28791,9 +31219,17 @@
       <c r="Q313" t="inlineStr"/>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="inlineStr"/>
-      <c r="T313" t="inlineStr"/>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U313" t="inlineStr"/>
-      <c r="V313" t="inlineStr"/>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W313" t="inlineStr"/>
       <c r="X313" t="inlineStr"/>
       <c r="Y313" t="inlineStr"/>
@@ -28869,9 +31305,17 @@
       <c r="Q314" t="inlineStr"/>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="inlineStr"/>
-      <c r="T314" t="inlineStr"/>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U314" t="inlineStr"/>
-      <c r="V314" t="inlineStr"/>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W314" t="inlineStr"/>
       <c r="X314" t="inlineStr"/>
       <c r="Y314" t="inlineStr"/>
@@ -28947,9 +31391,17 @@
       <c r="Q315" t="inlineStr"/>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="inlineStr"/>
-      <c r="T315" t="inlineStr"/>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U315" t="inlineStr"/>
-      <c r="V315" t="inlineStr"/>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W315" t="inlineStr"/>
       <c r="X315" t="inlineStr"/>
       <c r="Y315" t="inlineStr"/>
@@ -29025,9 +31477,17 @@
       <c r="Q316" t="inlineStr"/>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="inlineStr"/>
-      <c r="T316" t="inlineStr"/>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U316" t="inlineStr"/>
-      <c r="V316" t="inlineStr"/>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W316" t="inlineStr"/>
       <c r="X316" t="inlineStr"/>
       <c r="Y316" t="inlineStr"/>
@@ -29107,9 +31567,17 @@
       <c r="Q317" t="inlineStr"/>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="inlineStr"/>
-      <c r="T317" t="inlineStr"/>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U317" t="inlineStr"/>
-      <c r="V317" t="inlineStr"/>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W317" t="inlineStr"/>
       <c r="X317" t="inlineStr"/>
       <c r="Y317" t="inlineStr"/>
@@ -29188,9 +31656,17 @@
       <c r="Q318" t="inlineStr"/>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="inlineStr"/>
-      <c r="T318" t="inlineStr"/>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U318" t="inlineStr"/>
-      <c r="V318" t="inlineStr"/>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W318" t="inlineStr"/>
       <c r="X318" t="inlineStr"/>
       <c r="Y318" t="inlineStr"/>
@@ -29266,9 +31742,17 @@
       <c r="Q319" t="inlineStr"/>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="inlineStr"/>
-      <c r="T319" t="inlineStr"/>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U319" t="inlineStr"/>
-      <c r="V319" t="inlineStr"/>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W319" t="inlineStr"/>
       <c r="X319" t="inlineStr"/>
       <c r="Y319" t="inlineStr"/>
@@ -29328,12 +31812,10 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>11/15/2020</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>11</v>
-      </c>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -29348,13 +31830,21 @@
       <c r="S320" t="inlineStr"/>
       <c r="T320" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>11/15/2020</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U320" t="inlineStr"/>
-      <c r="V320" t="inlineStr"/>
-      <c r="W320" t="inlineStr"/>
-      <c r="X320" t="inlineStr"/>
       <c r="Y320" t="inlineStr"/>
       <c r="Z320" t="inlineStr"/>
       <c r="AA320" t="inlineStr"/>
@@ -29430,19 +31920,27 @@
       <c r="S321" t="inlineStr"/>
       <c r="T321" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U321" t="inlineStr"/>
       <c r="V321" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr">
+        <is>
           <t>2/1/MY</t>
         </is>
       </c>
-      <c r="W321" t="inlineStr"/>
-      <c r="X321" t="inlineStr"/>
       <c r="Y321" t="inlineStr"/>
-      <c r="Z321" t="inlineStr"/>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AA321" t="inlineStr"/>
       <c r="AB321" t="inlineStr"/>
       <c r="AC321" t="inlineStr"/>
@@ -29517,19 +32015,27 @@
       <c r="S322" t="inlineStr"/>
       <c r="T322" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U322" t="inlineStr"/>
       <c r="V322" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr">
+        <is>
           <t>2/1/MY</t>
         </is>
       </c>
-      <c r="W322" t="inlineStr"/>
-      <c r="X322" t="inlineStr"/>
       <c r="Y322" t="inlineStr"/>
-      <c r="Z322" t="inlineStr"/>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AA322" t="inlineStr"/>
       <c r="AB322" t="inlineStr"/>
       <c r="AC322" t="inlineStr"/>
@@ -29604,19 +32110,27 @@
       <c r="S323" t="inlineStr"/>
       <c r="T323" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U323" t="inlineStr"/>
       <c r="V323" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr">
+        <is>
           <t>2/1/MY</t>
         </is>
       </c>
-      <c r="W323" t="inlineStr"/>
-      <c r="X323" t="inlineStr"/>
       <c r="Y323" t="inlineStr"/>
-      <c r="Z323" t="inlineStr"/>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AA323" t="inlineStr"/>
       <c r="AB323" t="inlineStr"/>
       <c r="AC323" t="inlineStr"/>
@@ -29691,19 +32205,27 @@
       <c r="S324" t="inlineStr"/>
       <c r="T324" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U324" t="inlineStr"/>
       <c r="V324" t="inlineStr">
         <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr">
+        <is>
           <t>2/1/MY</t>
         </is>
       </c>
-      <c r="W324" t="inlineStr"/>
-      <c r="X324" t="inlineStr"/>
       <c r="Y324" t="inlineStr"/>
-      <c r="Z324" t="inlineStr"/>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AA324" t="inlineStr"/>
       <c r="AB324" t="inlineStr"/>
       <c r="AC324" t="inlineStr"/>
@@ -29778,13 +32300,13 @@
       <c r="S325" t="inlineStr"/>
       <c r="T325" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>1/1/MY</t>
         </is>
       </c>
       <c r="U325" t="inlineStr"/>
       <c r="V325" t="inlineStr">
         <is>
-          <t>2/1/MY</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="W325" t="inlineStr"/>
@@ -29794,9 +32316,17 @@
         </is>
       </c>
       <c r="Y325" t="inlineStr"/>
-      <c r="Z325" t="inlineStr"/>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AA325" t="inlineStr"/>
-      <c r="AB325" t="inlineStr"/>
+      <c r="AB325" t="inlineStr">
+        <is>
+          <t>2/1/MY</t>
+        </is>
+      </c>
       <c r="AC325" t="inlineStr"/>
       <c r="AD325" t="n">
         <v>1</v>
@@ -29852,12 +32382,10 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>11/15/2020</t>
-        </is>
-      </c>
-      <c r="G326" t="n">
-        <v>2</v>
-      </c>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -29872,13 +32400,21 @@
       <c r="S326" t="inlineStr"/>
       <c r="T326" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr"/>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>11/15/2020</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr"/>
+      <c r="X326" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U326" t="inlineStr"/>
-      <c r="V326" t="inlineStr"/>
-      <c r="W326" t="inlineStr"/>
-      <c r="X326" t="inlineStr"/>
       <c r="Y326" t="inlineStr"/>
       <c r="Z326" t="inlineStr"/>
       <c r="AA326" t="inlineStr"/>
@@ -29937,7 +32473,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>11/15/2020</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
@@ -29955,13 +32491,21 @@
       <c r="S327" t="inlineStr"/>
       <c r="T327" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr"/>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>11/15/2020</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr"/>
+      <c r="X327" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U327" t="inlineStr"/>
-      <c r="V327" t="inlineStr"/>
-      <c r="W327" t="inlineStr"/>
-      <c r="X327" t="inlineStr"/>
       <c r="Y327" t="inlineStr"/>
       <c r="Z327" t="inlineStr"/>
       <c r="AA327" t="inlineStr"/>
@@ -30020,12 +32564,10 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>11/16/2020</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>3</v>
-      </c>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -30040,13 +32582,21 @@
       <c r="S328" t="inlineStr"/>
       <c r="T328" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr"/>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr"/>
+      <c r="X328" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U328" t="inlineStr"/>
-      <c r="V328" t="inlineStr"/>
-      <c r="W328" t="inlineStr"/>
-      <c r="X328" t="inlineStr"/>
       <c r="Y328" t="inlineStr"/>
       <c r="Z328" t="inlineStr"/>
       <c r="AA328" t="inlineStr"/>
@@ -30105,12 +32655,10 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>11/16/2020</t>
-        </is>
-      </c>
-      <c r="G329" t="n">
-        <v>2</v>
-      </c>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -30125,13 +32673,21 @@
       <c r="S329" t="inlineStr"/>
       <c r="T329" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr"/>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U329" t="inlineStr"/>
-      <c r="V329" t="inlineStr"/>
-      <c r="W329" t="inlineStr"/>
-      <c r="X329" t="inlineStr"/>
       <c r="Y329" t="inlineStr"/>
       <c r="Z329" t="inlineStr"/>
       <c r="AA329" t="inlineStr"/>
@@ -30190,12 +32746,10 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>11/16/2020</t>
-        </is>
-      </c>
-      <c r="G330" t="n">
-        <v>2</v>
-      </c>
+          <t>12/31/MY</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -30210,13 +32764,21 @@
       <c r="S330" t="inlineStr"/>
       <c r="T330" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr"/>
+      <c r="X330" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U330" t="inlineStr"/>
-      <c r="V330" t="inlineStr"/>
-      <c r="W330" t="inlineStr"/>
-      <c r="X330" t="inlineStr"/>
       <c r="Y330" t="inlineStr"/>
       <c r="Z330" t="inlineStr"/>
       <c r="AA330" t="inlineStr"/>
@@ -30278,9 +32840,7 @@
           <t>11/16/2020</t>
         </is>
       </c>
-      <c r="G331" t="n">
-        <v>2</v>
-      </c>
+      <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -30299,7 +32859,11 @@
         </is>
       </c>
       <c r="U331" t="inlineStr"/>
-      <c r="V331" t="inlineStr"/>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>1/1/MY-11</t>
+        </is>
+      </c>
       <c r="W331" t="inlineStr"/>
       <c r="X331" t="inlineStr"/>
       <c r="Y331" t="inlineStr"/>
@@ -30359,7 +32923,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>11/16/2020</t>
+          <t>12/31/MY</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -30377,13 +32941,21 @@
       <c r="S332" t="inlineStr"/>
       <c r="T332" t="inlineStr">
         <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr">
+        <is>
           <t>1/1/MY-11</t>
         </is>
       </c>
-      <c r="U332" t="inlineStr"/>
-      <c r="V332" t="inlineStr"/>
-      <c r="W332" t="inlineStr"/>
-      <c r="X332" t="inlineStr"/>
       <c r="Y332" t="inlineStr"/>
       <c r="Z332" t="inlineStr"/>
       <c r="AA332" t="inlineStr"/>
@@ -30459,9 +33031,17 @@
       <c r="Q333" t="inlineStr"/>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="inlineStr"/>
-      <c r="T333" t="inlineStr"/>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>1/1/MY</t>
+        </is>
+      </c>
       <c r="U333" t="inlineStr"/>
-      <c r="V333" t="inlineStr"/>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>12/31/MY</t>
+        </is>
+      </c>
       <c r="W333" t="inlineStr"/>
       <c r="X333" t="inlineStr"/>
       <c r="Y333" t="inlineStr"/>
@@ -30470,7 +33050,7 @@
       <c r="AB333" t="inlineStr"/>
       <c r="AC333" t="inlineStr"/>
       <c r="AD333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE333" t="inlineStr"/>
       <c r="AF333" t="n">
